--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33316565698988</v>
+        <v>1.464265666666667</v>
       </c>
       <c r="N2">
-        <v>1.33316565698988</v>
+        <v>4.392797</v>
       </c>
       <c r="O2">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="P2">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="Q2">
-        <v>7.284907941520854</v>
+        <v>17.67371978668844</v>
       </c>
       <c r="R2">
-        <v>7.284907941520854</v>
+        <v>159.0634780801959</v>
       </c>
       <c r="S2">
-        <v>0.01452735305701199</v>
+        <v>0.01992080284129207</v>
       </c>
       <c r="T2">
-        <v>0.01452735305701199</v>
+        <v>0.01992080284129207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.800567523139835</v>
+        <v>0.8090393333333333</v>
       </c>
       <c r="N3">
-        <v>0.800567523139835</v>
+        <v>2.427118</v>
       </c>
       <c r="O3">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="P3">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="Q3">
-        <v>4.374595667438</v>
+        <v>9.765123091558221</v>
       </c>
       <c r="R3">
-        <v>4.374595667438</v>
+        <v>87.88610782402398</v>
       </c>
       <c r="S3">
-        <v>0.008723692358599579</v>
+        <v>0.01100668643475925</v>
       </c>
       <c r="T3">
-        <v>0.008723692358599579</v>
+        <v>0.01100668643475925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.944579270458</v>
+        <v>53.60457233333333</v>
       </c>
       <c r="N4">
-        <v>52.944579270458</v>
+        <v>160.813717</v>
       </c>
       <c r="O4">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325392</v>
       </c>
       <c r="P4">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325391</v>
       </c>
       <c r="Q4">
-        <v>289.3086721560873</v>
+        <v>647.0084031003061</v>
       </c>
       <c r="R4">
-        <v>289.3086721560873</v>
+        <v>5823.075627902755</v>
       </c>
       <c r="S4">
-        <v>0.5769309998980423</v>
+        <v>0.729270747210112</v>
       </c>
       <c r="T4">
-        <v>0.5769309998980423</v>
+        <v>0.729270747210112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33316565698988</v>
+        <v>1.464265666666667</v>
       </c>
       <c r="N5">
-        <v>1.33316565698988</v>
+        <v>4.392797</v>
       </c>
       <c r="O5">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="P5">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="Q5">
-        <v>1.602318470607277</v>
+        <v>1.915651915198667</v>
       </c>
       <c r="R5">
-        <v>1.602318470607277</v>
+        <v>17.240867236788</v>
       </c>
       <c r="S5">
-        <v>0.003195297225324144</v>
+        <v>0.002159212920415242</v>
       </c>
       <c r="T5">
-        <v>0.003195297225324144</v>
+        <v>0.002159212920415242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.800567523139835</v>
+        <v>0.8090393333333333</v>
       </c>
       <c r="N6">
-        <v>0.800567523139835</v>
+        <v>2.427118</v>
       </c>
       <c r="O6">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="P6">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="Q6">
-        <v>0.962194099862725</v>
+        <v>1.058440270541333</v>
       </c>
       <c r="R6">
-        <v>0.962194099862725</v>
+        <v>9.525962434872</v>
       </c>
       <c r="S6">
-        <v>0.001918779689501674</v>
+        <v>0.00119301314059639</v>
       </c>
       <c r="T6">
-        <v>0.001918779689501674</v>
+        <v>0.00119301314059639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.944579270458</v>
+        <v>53.60457233333333</v>
       </c>
       <c r="N7">
-        <v>52.944579270458</v>
+        <v>160.813717</v>
       </c>
       <c r="O7">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325392</v>
       </c>
       <c r="P7">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325391</v>
       </c>
       <c r="Q7">
-        <v>63.63356034472913</v>
+        <v>70.12914663738533</v>
       </c>
       <c r="R7">
-        <v>63.63356034472913</v>
+        <v>631.162319736468</v>
       </c>
       <c r="S7">
-        <v>0.1268962085483221</v>
+        <v>0.07904555014183451</v>
       </c>
       <c r="T7">
-        <v>0.1268962085483221</v>
+        <v>0.07904555014183449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.33316565698988</v>
+        <v>1.464265666666667</v>
       </c>
       <c r="N8">
-        <v>1.33316565698988</v>
+        <v>4.392797</v>
       </c>
       <c r="O8">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="P8">
-        <v>0.02420491111062816</v>
+        <v>0.02620474750556022</v>
       </c>
       <c r="Q8">
-        <v>3.250604098469327</v>
+        <v>3.659458587934445</v>
       </c>
       <c r="R8">
-        <v>3.250604098469327</v>
+        <v>32.93512729141</v>
       </c>
       <c r="S8">
-        <v>0.006482260828292024</v>
+        <v>0.004124731743852912</v>
       </c>
       <c r="T8">
-        <v>0.006482260828292024</v>
+        <v>0.004124731743852912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.800567523139835</v>
+        <v>0.8090393333333333</v>
       </c>
       <c r="N9">
-        <v>0.800567523139835</v>
+        <v>2.427118</v>
       </c>
       <c r="O9">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="P9">
-        <v>0.01453507719318827</v>
+        <v>0.01447870556190061</v>
       </c>
       <c r="Q9">
-        <v>1.951991530966613</v>
+        <v>2.021932224282222</v>
       </c>
       <c r="R9">
-        <v>1.951991530966613</v>
+        <v>18.19739001854</v>
       </c>
       <c r="S9">
-        <v>0.003892605145087017</v>
+        <v>0.002279005986544972</v>
       </c>
       <c r="T9">
-        <v>0.003892605145087017</v>
+        <v>0.002279005986544972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.944579270458</v>
+        <v>53.60457233333333</v>
       </c>
       <c r="N10">
-        <v>52.944579270458</v>
+        <v>160.813717</v>
       </c>
       <c r="O10">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325392</v>
       </c>
       <c r="P10">
-        <v>0.9612600116961836</v>
+        <v>0.9593165469325391</v>
       </c>
       <c r="Q10">
-        <v>129.0926341118547</v>
+        <v>133.9672964021122</v>
       </c>
       <c r="R10">
-        <v>129.0926341118547</v>
+        <v>1205.70566761901</v>
       </c>
       <c r="S10">
-        <v>0.2574328032498192</v>
+        <v>0.1510002495805927</v>
       </c>
       <c r="T10">
-        <v>0.2574328032498192</v>
+        <v>0.1510002495805927</v>
       </c>
     </row>
   </sheetData>
